--- a/taxrece.xlsx
+++ b/taxrece.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nithipon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCABFD6-4AFB-6F44-A83A-1771726EE167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360577CB-150E-1547-9B91-589F6DA03DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,10 +530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -542,7 +542,7 @@
     <col min="2" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +562,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -582,7 +582,7 @@
         <v>1990139</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -602,7 +602,7 @@
         <v>340784</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -622,7 +622,7 @@
         <v>693426</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -641,11 +641,8 @@
       <c r="F5">
         <v>84464</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -665,7 +662,7 @@
         <v>792957</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -685,7 +682,7 @@
         <v>61328</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -705,7 +702,7 @@
         <v>16404</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -725,7 +722,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -745,7 +742,7 @@
         <v>611732</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -765,7 +762,7 @@
         <v>232763</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -785,7 +782,7 @@
         <v>65282</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -805,7 +802,7 @@
         <v>65832</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -825,7 +822,7 @@
         <v>86612</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -845,7 +842,7 @@
         <v>127069</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
